--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lamc2</t>
   </si>
   <si>
     <t>Itgb4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H2">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I2">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J2">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.92603533333333</v>
+        <v>15.991592</v>
       </c>
       <c r="N2">
-        <v>32.778106</v>
+        <v>47.97477600000001</v>
       </c>
       <c r="O2">
-        <v>0.6876368010579896</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="P2">
-        <v>0.6876368010579899</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="Q2">
-        <v>13.66819705111667</v>
+        <v>25.55676552516534</v>
       </c>
       <c r="R2">
-        <v>123.01377346005</v>
+        <v>230.010889726488</v>
       </c>
       <c r="S2">
-        <v>0.154221715838897</v>
+        <v>0.1933711234343166</v>
       </c>
       <c r="T2">
-        <v>0.154221715838897</v>
+        <v>0.1933711234343165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H3">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I3">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J3">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.388815333333334</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N3">
-        <v>7.166446000000001</v>
+        <v>7.166446</v>
       </c>
       <c r="O3">
-        <v>0.1503415725849085</v>
+        <v>0.1122206877441041</v>
       </c>
       <c r="P3">
-        <v>0.1503415725849086</v>
+        <v>0.1122206877441042</v>
       </c>
       <c r="Q3">
-        <v>2.988348261616667</v>
+        <v>3.817655762910889</v>
       </c>
       <c r="R3">
-        <v>26.89513435455</v>
+        <v>34.358901866198</v>
       </c>
       <c r="S3">
-        <v>0.03371828740156006</v>
+        <v>0.02888567346414216</v>
       </c>
       <c r="T3">
-        <v>0.03371828740156007</v>
+        <v>0.02888567346414215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H4">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I4">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J4">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5008316666666666</v>
+        <v>0.914392</v>
       </c>
       <c r="N4">
-        <v>1.502495</v>
+        <v>2.743176</v>
       </c>
       <c r="O4">
-        <v>0.03152015114618349</v>
+        <v>0.04295589436146182</v>
       </c>
       <c r="P4">
-        <v>0.0315201511461835</v>
+        <v>0.04295589436146183</v>
       </c>
       <c r="Q4">
-        <v>0.6265278942083332</v>
+        <v>1.461324297298667</v>
       </c>
       <c r="R4">
-        <v>5.638751047874998</v>
+        <v>13.151918675688</v>
       </c>
       <c r="S4">
-        <v>0.007069272304487742</v>
+        <v>0.01105687340568416</v>
       </c>
       <c r="T4">
-        <v>0.007069272304487745</v>
+        <v>0.01105687340568416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H5">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I5">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J5">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.540999</v>
+        <v>1.309904666666666</v>
       </c>
       <c r="N5">
-        <v>4.622997000000001</v>
+        <v>3.929714</v>
       </c>
       <c r="O5">
-        <v>0.09698372652711183</v>
+        <v>0.06153610977011958</v>
       </c>
       <c r="P5">
-        <v>0.09698372652711185</v>
+        <v>0.06153610977011959</v>
       </c>
       <c r="Q5">
-        <v>1.927751224025</v>
+        <v>2.093407987542444</v>
       </c>
       <c r="R5">
-        <v>17.349761016225</v>
+        <v>18.840671887882</v>
       </c>
       <c r="S5">
-        <v>0.02175130343583834</v>
+        <v>0.01583943218318647</v>
       </c>
       <c r="T5">
-        <v>0.02175130343583835</v>
+        <v>0.01583943218318646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H6">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I6">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J6">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5325719999999999</v>
+        <v>0.6820603333333333</v>
       </c>
       <c r="N6">
-        <v>1.597716</v>
+        <v>2.046181</v>
       </c>
       <c r="O6">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="P6">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="Q6">
-        <v>0.6662342576999999</v>
+        <v>1.090026309639222</v>
       </c>
       <c r="R6">
-        <v>5.996108319299999</v>
+        <v>9.810236786753</v>
       </c>
       <c r="S6">
-        <v>0.007517289221752444</v>
+        <v>0.008247507371789567</v>
       </c>
       <c r="T6">
-        <v>0.007517289221752447</v>
+        <v>0.008247507371789566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>11.725855</v>
       </c>
       <c r="I7">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J7">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.92603533333333</v>
+        <v>15.991592</v>
       </c>
       <c r="N7">
-        <v>32.778106</v>
+        <v>47.97477600000001</v>
       </c>
       <c r="O7">
-        <v>0.6876368010579896</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="P7">
-        <v>0.6876368010579899</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="Q7">
-        <v>42.70570201451444</v>
+        <v>62.50502967038668</v>
       </c>
       <c r="R7">
-        <v>384.35131813063</v>
+        <v>562.5452670334801</v>
       </c>
       <c r="S7">
-        <v>0.4818592105565951</v>
+        <v>0.472934174543974</v>
       </c>
       <c r="T7">
-        <v>0.4818592105565953</v>
+        <v>0.4729341745439739</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>11.725855</v>
       </c>
       <c r="I8">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J8">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.388815333333334</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N8">
-        <v>7.166446000000001</v>
+        <v>7.166446</v>
       </c>
       <c r="O8">
-        <v>0.1503415725849085</v>
+        <v>0.1122206877441041</v>
       </c>
       <c r="P8">
-        <v>0.1503415725849086</v>
+        <v>0.1122206877441042</v>
       </c>
       <c r="Q8">
-        <v>9.336967406814445</v>
+        <v>9.336967406814443</v>
       </c>
       <c r="R8">
-        <v>84.03270666133001</v>
+        <v>84.03270666133</v>
       </c>
       <c r="S8">
-        <v>0.1053513589850637</v>
+        <v>0.07064665030273333</v>
       </c>
       <c r="T8">
-        <v>0.1053513589850637</v>
+        <v>0.07064665030273332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>11.725855</v>
       </c>
       <c r="I9">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J9">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5008316666666666</v>
+        <v>0.914392</v>
       </c>
       <c r="N9">
-        <v>1.502495</v>
+        <v>2.743176</v>
       </c>
       <c r="O9">
-        <v>0.03152015114618349</v>
+        <v>0.04295589436146182</v>
       </c>
       <c r="P9">
-        <v>0.0315201511461835</v>
+        <v>0.04295589436146183</v>
       </c>
       <c r="Q9">
-        <v>1.957559834247222</v>
+        <v>3.574009335053333</v>
       </c>
       <c r="R9">
-        <v>17.618038508225</v>
+        <v>32.16608401548</v>
       </c>
       <c r="S9">
-        <v>0.02208764150574262</v>
+        <v>0.02704216226437076</v>
       </c>
       <c r="T9">
-        <v>0.02208764150574263</v>
+        <v>0.02704216226437076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>11.725855</v>
       </c>
       <c r="I10">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J10">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.540999</v>
+        <v>1.309904666666666</v>
       </c>
       <c r="N10">
-        <v>4.622997000000001</v>
+        <v>3.929714</v>
       </c>
       <c r="O10">
-        <v>0.09698372652711183</v>
+        <v>0.06153610977011958</v>
       </c>
       <c r="P10">
-        <v>0.09698372652711185</v>
+        <v>0.06153610977011959</v>
       </c>
       <c r="Q10">
-        <v>6.023176943048335</v>
+        <v>5.119917395052222</v>
       </c>
       <c r="R10">
-        <v>54.20859248743501</v>
+        <v>46.07925655547</v>
       </c>
       <c r="S10">
-        <v>0.06796102510698782</v>
+        <v>0.03873902499896816</v>
       </c>
       <c r="T10">
-        <v>0.06796102510698783</v>
+        <v>0.03873902499896816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>11.725855</v>
       </c>
       <c r="I11">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J11">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5325719999999999</v>
+        <v>0.6820603333333333</v>
       </c>
       <c r="N11">
-        <v>1.597716</v>
+        <v>2.046181</v>
       </c>
       <c r="O11">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="P11">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="Q11">
-        <v>2.08162068302</v>
+        <v>2.665913523306111</v>
       </c>
       <c r="R11">
-        <v>18.73458614718</v>
+        <v>23.993221709755</v>
       </c>
       <c r="S11">
-        <v>0.02348745136322522</v>
+        <v>0.02017120251280721</v>
       </c>
       <c r="T11">
-        <v>0.02348745136322523</v>
+        <v>0.02017120251280721</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H12">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I12">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J12">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.92603533333333</v>
+        <v>15.991592</v>
       </c>
       <c r="N12">
-        <v>32.778106</v>
+        <v>47.97477600000001</v>
       </c>
       <c r="O12">
-        <v>0.6876368010579896</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="P12">
-        <v>0.6876368010579899</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="Q12">
-        <v>0.0901397915</v>
+        <v>2.437603699090667</v>
       </c>
       <c r="R12">
-        <v>0.8112581235</v>
+        <v>21.938433291816</v>
       </c>
       <c r="S12">
-        <v>0.001017070009928976</v>
+        <v>0.01844373323833429</v>
       </c>
       <c r="T12">
-        <v>0.001017070009928976</v>
+        <v>0.01844373323833429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H13">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I13">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J13">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.388815333333334</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N13">
-        <v>7.166446000000001</v>
+        <v>7.166446</v>
       </c>
       <c r="O13">
-        <v>0.1503415725849085</v>
+        <v>0.1122206877441041</v>
       </c>
       <c r="P13">
-        <v>0.1503415725849086</v>
+        <v>0.1122206877441042</v>
       </c>
       <c r="Q13">
-        <v>0.0197077265</v>
+        <v>0.3641279175317778</v>
       </c>
       <c r="R13">
-        <v>0.1773695385</v>
+        <v>3.277151257786</v>
       </c>
       <c r="S13">
-        <v>0.0002223672503949883</v>
+        <v>0.002755114860586902</v>
       </c>
       <c r="T13">
-        <v>0.0002223672503949884</v>
+        <v>0.002755114860586901</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H14">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I14">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J14">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5008316666666666</v>
+        <v>0.914392</v>
       </c>
       <c r="N14">
-        <v>1.502495</v>
+        <v>2.743176</v>
       </c>
       <c r="O14">
-        <v>0.03152015114618349</v>
+        <v>0.04295589436146182</v>
       </c>
       <c r="P14">
-        <v>0.0315201511461835</v>
+        <v>0.04295589436146183</v>
       </c>
       <c r="Q14">
-        <v>0.00413186125</v>
+        <v>0.1393810773573333</v>
       </c>
       <c r="R14">
-        <v>0.03718675125</v>
+        <v>1.254429696216</v>
       </c>
       <c r="S14">
-        <v>4.662083295991038E-05</v>
+        <v>0.00105460432727817</v>
       </c>
       <c r="T14">
-        <v>4.662083295991039E-05</v>
+        <v>0.00105460432727817</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H15">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I15">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J15">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.540999</v>
+        <v>1.309904666666666</v>
       </c>
       <c r="N15">
-        <v>4.622997000000001</v>
+        <v>3.929714</v>
       </c>
       <c r="O15">
-        <v>0.09698372652711183</v>
+        <v>0.06153610977011958</v>
       </c>
       <c r="P15">
-        <v>0.09698372652711185</v>
+        <v>0.06153610977011959</v>
       </c>
       <c r="Q15">
-        <v>0.01271324175</v>
+        <v>0.1996692049748889</v>
       </c>
       <c r="R15">
-        <v>0.11441917575</v>
+        <v>1.797022844774</v>
       </c>
       <c r="S15">
-        <v>0.0001434467142394263</v>
+        <v>0.001510764671813113</v>
       </c>
       <c r="T15">
-        <v>0.0001434467142394263</v>
+        <v>0.001510764671813112</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H16">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I16">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J16">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5325719999999999</v>
+        <v>0.6820603333333333</v>
       </c>
       <c r="N16">
-        <v>1.597716</v>
+        <v>2.046181</v>
       </c>
       <c r="O16">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="P16">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="Q16">
-        <v>0.004393719</v>
+        <v>0.1039666839634444</v>
       </c>
       <c r="R16">
-        <v>0.039543471</v>
+        <v>0.935700155671</v>
       </c>
       <c r="S16">
-        <v>4.957544002035027E-05</v>
+        <v>0.0007866470605584089</v>
       </c>
       <c r="T16">
-        <v>4.957544002035028E-05</v>
+        <v>0.0007866470605584087</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H17">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I17">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J17">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.92603533333333</v>
+        <v>15.991592</v>
       </c>
       <c r="N17">
-        <v>32.778106</v>
+        <v>47.97477600000001</v>
       </c>
       <c r="O17">
-        <v>0.6876368010579896</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="P17">
-        <v>0.6876368010579899</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="Q17">
-        <v>4.479099048805779</v>
+        <v>8.770130206762667</v>
       </c>
       <c r="R17">
-        <v>40.311891439252</v>
+        <v>78.93117186086401</v>
       </c>
       <c r="S17">
-        <v>0.05053880465256854</v>
+        <v>0.06635776851640385</v>
       </c>
       <c r="T17">
-        <v>0.05053880465256856</v>
+        <v>0.06635776851640383</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H18">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I18">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J18">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.388815333333334</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N18">
-        <v>7.166446000000001</v>
+        <v>7.166446</v>
       </c>
       <c r="O18">
-        <v>0.1503415725849085</v>
+        <v>0.1122206877441041</v>
       </c>
       <c r="P18">
-        <v>0.1503415725849086</v>
+        <v>0.1122206877441042</v>
       </c>
       <c r="Q18">
-        <v>0.9792884757257779</v>
+        <v>1.310077290193778</v>
       </c>
       <c r="R18">
-        <v>8.813596281532002</v>
+        <v>11.790695611744</v>
       </c>
       <c r="S18">
-        <v>0.01104955894788983</v>
+        <v>0.009912487444512679</v>
       </c>
       <c r="T18">
-        <v>0.01104955894788983</v>
+        <v>0.009912487444512679</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H19">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I19">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J19">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5008316666666666</v>
+        <v>0.914392</v>
       </c>
       <c r="N19">
-        <v>1.502495</v>
+        <v>2.743176</v>
       </c>
       <c r="O19">
-        <v>0.03152015114618349</v>
+        <v>0.04295589436146182</v>
       </c>
       <c r="P19">
-        <v>0.0315201511461835</v>
+        <v>0.04295589436146183</v>
       </c>
       <c r="Q19">
-        <v>0.2053146061988889</v>
+        <v>0.5014720798293333</v>
       </c>
       <c r="R19">
-        <v>1.84783145579</v>
+        <v>4.513248718464</v>
       </c>
       <c r="S19">
-        <v>0.002316616502993216</v>
+        <v>0.003794307200261959</v>
       </c>
       <c r="T19">
-        <v>0.002316616502993217</v>
+        <v>0.003794307200261959</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H20">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I20">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J20">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.540999</v>
+        <v>1.309904666666666</v>
       </c>
       <c r="N20">
-        <v>4.622997000000001</v>
+        <v>3.929714</v>
       </c>
       <c r="O20">
-        <v>0.09698372652711183</v>
+        <v>0.06153610977011958</v>
       </c>
       <c r="P20">
-        <v>0.09698372652711185</v>
+        <v>0.06153610977011959</v>
       </c>
       <c r="Q20">
-        <v>0.6317284307193335</v>
+        <v>0.7183796638328888</v>
       </c>
       <c r="R20">
-        <v>5.685555876474002</v>
+        <v>6.465416974496</v>
       </c>
       <c r="S20">
-        <v>0.007127951270046244</v>
+        <v>0.00543550327254621</v>
       </c>
       <c r="T20">
-        <v>0.007127951270046247</v>
+        <v>0.00543550327254621</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H21">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I21">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J21">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.5325719999999999</v>
+        <v>0.6820603333333333</v>
       </c>
       <c r="N21">
-        <v>1.597716</v>
+        <v>2.046181</v>
       </c>
       <c r="O21">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="P21">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="Q21">
-        <v>0.218326471208</v>
+        <v>0.3740564374204444</v>
       </c>
       <c r="R21">
-        <v>1.964938240872</v>
+        <v>3.366507936784</v>
       </c>
       <c r="S21">
-        <v>0.002463432658808388</v>
+        <v>0.002830237396849205</v>
       </c>
       <c r="T21">
-        <v>0.00246343265880839</v>
+        <v>0.002830237396849205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.003446</v>
+      </c>
+      <c r="I22">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J22">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.991592</v>
+      </c>
+      <c r="N22">
+        <v>47.97477600000001</v>
+      </c>
+      <c r="O22">
+        <v>0.7512457858594542</v>
+      </c>
+      <c r="P22">
+        <v>0.7512457858594542</v>
+      </c>
+      <c r="Q22">
+        <v>0.01836900867733333</v>
+      </c>
+      <c r="R22">
+        <v>0.165321078096</v>
+      </c>
+      <c r="S22">
+        <v>0.0001389861264256239</v>
+      </c>
+      <c r="T22">
+        <v>0.0001389861264256239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.003446</v>
+      </c>
+      <c r="I23">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J23">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.388815333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.166446</v>
+      </c>
+      <c r="O23">
+        <v>0.1122206877441041</v>
+      </c>
+      <c r="P23">
+        <v>0.1122206877441042</v>
+      </c>
+      <c r="Q23">
+        <v>0.002743952546222222</v>
+      </c>
+      <c r="R23">
+        <v>0.024695572916</v>
+      </c>
+      <c r="S23">
+        <v>2.07616721290873E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.07616721290873E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.003446</v>
+      </c>
+      <c r="I24">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J24">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.914392</v>
+      </c>
+      <c r="N24">
+        <v>2.743176</v>
+      </c>
+      <c r="O24">
+        <v>0.04295589436146182</v>
+      </c>
+      <c r="P24">
+        <v>0.04295589436146183</v>
+      </c>
+      <c r="Q24">
+        <v>0.001050331610666667</v>
+      </c>
+      <c r="R24">
+        <v>0.009452984495999999</v>
+      </c>
+      <c r="S24">
+        <v>7.94716386677318E-06</v>
+      </c>
+      <c r="T24">
+        <v>7.94716386677318E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.003446</v>
+      </c>
+      <c r="I25">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J25">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.309904666666666</v>
+      </c>
+      <c r="N25">
+        <v>3.929714</v>
+      </c>
+      <c r="O25">
+        <v>0.06153610977011958</v>
+      </c>
+      <c r="P25">
+        <v>0.06153610977011959</v>
+      </c>
+      <c r="Q25">
+        <v>0.001504643827111111</v>
+      </c>
+      <c r="R25">
+        <v>0.013541794444</v>
+      </c>
+      <c r="S25">
+        <v>1.138464360564276E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.138464360564277E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.003446</v>
+      </c>
+      <c r="I26">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J26">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.6820603333333333</v>
+      </c>
+      <c r="N26">
+        <v>2.046181</v>
+      </c>
+      <c r="O26">
+        <v>0.03204152226486026</v>
+      </c>
+      <c r="P26">
+        <v>0.03204152226486026</v>
+      </c>
+      <c r="Q26">
+        <v>0.0007834599695555554</v>
+      </c>
+      <c r="R26">
+        <v>0.007051139725999999</v>
+      </c>
+      <c r="S26">
+        <v>5.927922855871374E-06</v>
+      </c>
+      <c r="T26">
+        <v>5.927922855871374E-06</v>
       </c>
     </row>
   </sheetData>
